--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/67/correct_predictions_67.xlsx
@@ -467,26 +467,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/67/correct_predictions_67.xlsx
@@ -467,26 +467,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
